--- a/src/ISA-CWL-Converter/data/isa.assay.neu.xlsx
+++ b/src/ISA-CWL-Converter/data/isa.assay.neu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Dataplant\IsaToCwl\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\source\repos\ISA-CWL-Converter\src\ISA-CWL-Converter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4356D25C-58F7-4809-91F8-5C20FB02A1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646DA8D9-A53D-4C9C-96A6-701347BEB048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Source Name</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Comment[&lt;Worksheet&gt;]</t>
+  </si>
+  <si>
+    <t>hello2.txt</t>
+  </si>
+  <si>
+    <t>hello2.tar</t>
   </si>
 </sst>
 </file>
@@ -194,7 +200,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -238,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5ABA4149-4370-43FE-9BE1-4E3DE831AE32}" name="annotationTableEmptyInsect78" displayName="annotationTableEmptyInsect78" ref="A1:K2" totalsRowShown="0">
-  <autoFilter ref="A1:K2" xr:uid="{5ABA4149-4370-43FE-9BE1-4E3DE831AE32}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5ABA4149-4370-43FE-9BE1-4E3DE831AE32}" name="annotationTableEmptyInsect78" displayName="annotationTableEmptyInsect78" ref="A1:K3" totalsRowShown="0">
+  <autoFilter ref="A1:K3" xr:uid="{5ABA4149-4370-43FE-9BE1-4E3DE831AE32}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{0C847BB6-5067-4C6B-970F-2A46F6750895}" name="Source Name"/>
     <tableColumn id="6" xr3:uid="{11DDBDA0-1331-437A-9508-C0786B115FF2}" name="Characteristic [Position]" dataDxfId="8"/>
@@ -551,27 +557,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="24.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.86328125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="29" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.86328125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="29" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -621,6 +627,23 @@
       </c>
       <c r="K2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -635,18 +658,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3F9FB5-416C-44CF-82BC-AACA0858391C}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -654,7 +677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -662,7 +685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -670,7 +693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -678,7 +701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -686,7 +709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -694,7 +717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -702,7 +725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -710,12 +733,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -723,7 +746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -731,7 +754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -739,7 +762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -747,7 +770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -755,7 +778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -763,7 +786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -771,7 +794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -779,7 +802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -787,7 +810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -795,7 +818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -803,7 +826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>38</v>
       </c>

--- a/src/ISA-CWL-Converter/data/isa.assay.neu.xlsx
+++ b/src/ISA-CWL-Converter/data/isa.assay.neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\source\repos\ISA-CWL-Converter\src\ISA-CWL-Converter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646DA8D9-A53D-4C9C-96A6-701347BEB048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9B2C84-CF60-4EC1-9061-4FA4F4FB4B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>Source Name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Term Accession Number ()</t>
   </si>
   <si>
-    <t>Characteristic [Position]</t>
-  </si>
-  <si>
     <t>Term Source REF (#2)</t>
   </si>
   <si>
@@ -160,6 +157,36 @@
   </si>
   <si>
     <t>hello2.tar</t>
+  </si>
+  <si>
+    <t>Term Source REF (#4)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (#4)</t>
+  </si>
+  <si>
+    <t>user-specific</t>
+  </si>
+  <si>
+    <t>Component [Requirement[NetworkAccess]]</t>
+  </si>
+  <si>
+    <t>Term Source REF (#5)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (#5)</t>
+  </si>
+  <si>
+    <t>Component [Requirement[DockerRequirement]]</t>
+  </si>
+  <si>
+    <t>{"dockerPull" : "someurioderso"}</t>
+  </si>
+  <si>
+    <t>Characteristic [InputType]</t>
+  </si>
+  <si>
+    <t>File</t>
   </si>
 </sst>
 </file>
@@ -202,7 +229,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -220,6 +247,18 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -244,13 +283,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5ABA4149-4370-43FE-9BE1-4E3DE831AE32}" name="annotationTableEmptyInsect78" displayName="annotationTableEmptyInsect78" ref="A1:K3" totalsRowShown="0">
-  <autoFilter ref="A1:K3" xr:uid="{5ABA4149-4370-43FE-9BE1-4E3DE831AE32}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5ABA4149-4370-43FE-9BE1-4E3DE831AE32}" name="annotationTableEmptyInsect78" displayName="annotationTableEmptyInsect78" ref="A1:Q3" totalsRowShown="0">
+  <autoFilter ref="A1:Q3" xr:uid="{5ABA4149-4370-43FE-9BE1-4E3DE831AE32}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{0C847BB6-5067-4C6B-970F-2A46F6750895}" name="Source Name"/>
-    <tableColumn id="6" xr3:uid="{11DDBDA0-1331-437A-9508-C0786B115FF2}" name="Characteristic [Position]" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{E40D67D4-5BF8-4E20-BA94-C7CDCC1C7B96}" name="Term Source REF (#2)" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{D5E1E0B3-C833-4F3D-925C-DD01DD86383F}" name="Term Accession Number (#2)" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{11DDBDA0-1331-437A-9508-C0786B115FF2}" name="Characteristic [InputType]" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{E40D67D4-5BF8-4E20-BA94-C7CDCC1C7B96}" name="Term Source REF (#2)" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{D5E1E0B3-C833-4F3D-925C-DD01DD86383F}" name="Term Accession Number (#2)" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{5BF2455E-E5FB-497B-B88A-7A0A0BA9C1DE}" name="Component [Requirement[DockerRequirement]]"/>
+    <tableColumn id="13" xr3:uid="{9B2AC4AE-426E-44F5-ADE0-ACD5F1E2E46F}" name="Term Source REF (#4)" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{7BEDD466-3126-4A2A-B5CE-2A07AE958DC4}" name="Term Accession Number (#4)" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{1F4D880E-4905-4027-9362-39E4F7DE70CE}" name="Component [Requirement[NetworkAccess]]"/>
+    <tableColumn id="16" xr3:uid="{00F1CAC4-12A4-492C-BC2F-BCCF59B3B6AD}" name="Term Source REF (#5)" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{F532768E-6F7E-4821-B99F-96CA131BAF02}" name="Term Accession Number (#5)" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{EBB36DC6-FFCB-42CB-9E3D-3F2F6C98EABE}" name="Characteristic [Prefix]" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{39537EF8-2D27-4B31-A6CF-BDB28E9FA439}" name="Term Source REF ()" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{50657D00-FD93-47C2-A4F0-E2AE6931484A}" name="Term Accession Number ()" dataDxfId="3"/>
@@ -526,7 +571,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="695" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="700" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
@@ -557,93 +602,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.86328125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="29" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="29.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.86328125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="29" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.19921875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.53125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="38.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.19921875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="26.53125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="26.53125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
+      <c r="Q3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -666,172 +752,172 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
